--- a/data/guest_information 1.xlsx
+++ b/data/guest_information 1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mabmotor-my.sharepoint.com/personal/vnm13649_mabuchi-motor_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Mabuchi Motor\MabuchiChatbot\MabuchiChatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="13_ncr:1_{4F630A79-3C1C-4C83-A36E-39021CA37D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C352AC26-9AE2-491D-9AC7-0416D25CD676}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117ECFBE-475B-4751-8590-C82A49670A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participants_profile" sheetId="1" r:id="rId1"/>
     <sheet name="role_definition" sheetId="2" r:id="rId2"/>
     <sheet name="company_context" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentManualCount="6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -115,18 +115,9 @@
     <t>Nguyễn Đức Phát</t>
   </si>
   <si>
-    <t>Diva của Ban kỹ thuật</t>
-  </si>
-  <si>
-    <t>laptop dỏm quá nên luôn ước được sếp tặng có 1 con Alienware</t>
-  </si>
-  <si>
     <t>Hoàng Duy Lộc</t>
   </si>
   <si>
-    <t>senior, G/L</t>
-  </si>
-  <si>
     <t>3 năm</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
   </si>
   <si>
     <t>Giám đốc</t>
-  </si>
-  <si>
-    <t>sếp cấp cao nhất</t>
   </si>
   <si>
     <t>fan cứng công nghệ, chửi hay như hát, có thể chửi nhân viên 3 tiếng liên tục không nghỉ, nụ cười chấn động cả tầng lầu, đô bất tử,  câu cửa miệng "suy nghĩ đi, cứ làm đi, cái gì khó nói anh", nói anh xong thì anh bảo "cứ làm đi", ám ảnh bụng bia, nhưng bụng thì toàn bia</t>
@@ -366,9 +354,6 @@
     <t>NCKTM - 新技術研究</t>
   </si>
   <si>
-    <t>Chị đại làng chơi, kèo nào đi chơi là thấy chị. Yêu quý đàn em, đứa nào nhìn lem hem là chị giải cíu. Kinh nghiệm nhiều năm làm cá mập trong các ì ven sô chậu toàn ban. Nên tiếng nói nặng cả tấn</t>
-  </si>
-  <si>
     <t>Nguyễn Đình Nghĩa</t>
   </si>
   <si>
@@ -412,9 +397,6 @@
   </si>
   <si>
     <t>&gt; 1 năm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đại gia miền Tây, rất nhạy cảm với con số, không thích số 1 số 2 và số 6, người dài ngoẵng như cái cây, có rất nhiều em gái mưa là mấy chiếc xe AMR hay mất kết nối, cứ hở chút là phải gọi anh trai mưa giải cứu </t>
   </si>
   <si>
     <t>Nguyễn Phúc Bảo</t>
@@ -726,9 +708,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hiệp </t>
-  </si>
-  <si>
-    <t>Khách mời - nhóm Xử lý hình ảnh</t>
   </si>
   <si>
     <t xml:space="preserve">Chuyên gia xử lý ảnh </t>
@@ -862,16 +841,43 @@
    - Team NCKTM (Nghiên cứu Kỹ thuật mới): Những nhà nghiên cứu, hay thử nghiệm cái lạ, luôn chìm trong các thiết bị máy móc lạ lùng để thử nghiệm.
    - Team Đối ứng hàng mới: quay đầu 4 phương 8 hướng để sản xuất hàng mẫu, tối ngày phải đi họp, đi combat, đi tiếp người công tác, tần suất bị nhóm Thông dịch cằn nhằn rất nhiều do ngoại ngữ không thông </t>
   </si>
+  <si>
+    <t xml:space="preserve"> ăn uống rất kĩ nhưng lại hay bị tào tháo dí, laptop dỏm quá nên luôn ước được sếp tặng có 1 con laptop Alienware</t>
+  </si>
+  <si>
+    <t>Diva của Ban kỹ thuật, PT (personal trainer) của nhóm NCKTM</t>
+  </si>
+  <si>
+    <t>sếp cấp cao nhất của ban Kỹ thuật sản xuất 2</t>
+  </si>
+  <si>
+    <t>leader của nhóm NCKTM, gương mặt trẻ đầy triển vọng của công ty – vừa được thăng chức nhờ năng lực vượt trội trong quản lý đội nhóm và khả năng xử lý tình huống cực kỳ linh hoạt.</t>
+  </si>
+  <si>
+    <t>Chuyên gia, G/L</t>
+  </si>
+  <si>
+    <t>Chuyên gia xử lý hình ảnh</t>
+  </si>
+  <si>
+    <t>Khách mời - nhóm Xử lý hình ảnh của trung tâm R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đại gia miền Tây, chuyên đi cà khịa người khác, rất nhạy cảm với con số, không thích số 126, người dài ngoẵng như cái cây, có rất nhiều em gái mưa là mấy chiếc xe AMR hay mất kết nối, cứ hở chút là phải gọi anh trai mưa giải cứu </t>
+  </si>
+  <si>
+    <t>Chị đại làng chơi, kèo nào đi chơi là thấy chị. Yêu quý đàn em, đặc biệt là khi được các em mời bia (đô 10 thùng). Kinh nghiệm nhiều năm làm cá mập trong các ì-ven-sô -chậu toàn ban. Nên tiếng nói nặng cả tấn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1038,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1106,14 +1112,17 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,33 +1407,33 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M68" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M72" sqref="M72"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="107.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="111.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="76.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="36.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="69.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="107.69921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.69921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="111.09765625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="76.09765625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="36.8984375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.75">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>13649</v>
       </c>
@@ -1514,11 +1523,11 @@
       <c r="N2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>13654</v>
       </c>
@@ -1537,11 +1546,11 @@
       <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
+      <c r="G3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>245</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>21</v>
@@ -1562,12 +1571,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30.75">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>13443</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="12">
         <v>27</v>
@@ -1576,16 +1585,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>21</v>
@@ -1606,78 +1615,78 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="119.25">
+    <row r="5" spans="1:15" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>10574</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="I5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30.75">
+    </row>
+    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>10377</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1697,77 +1706,77 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30.75">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>10294</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30.75">
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>10635</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>21</v>
@@ -1788,65 +1797,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="64.5">
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>70</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="O9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30.75">
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>12407</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>19</v>
@@ -1858,7 +1867,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>21</v>
@@ -1879,18 +1888,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>13410</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>19</v>
@@ -1902,7 +1911,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>21</v>
@@ -1923,21 +1932,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30.75">
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11697</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>19</v>
@@ -1946,7 +1955,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>21</v>
@@ -1967,31 +1976,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30.75">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>13167</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="I13" s="12" t="s">
         <v>21</v>
       </c>
@@ -2011,18 +2020,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39.75">
+    <row r="14" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13611</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>19</v>
@@ -2034,7 +2043,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>21</v>
@@ -2054,22 +2063,22 @@
       <c r="N14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="50.25" customHeight="1">
+      <c r="O14" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>12980</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>19</v>
@@ -2081,7 +2090,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>21</v>
@@ -2099,34 +2108,34 @@
         <v>19</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="30.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>13166</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="I16" s="12" t="s">
         <v>21</v>
       </c>
@@ -2146,18 +2155,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30.75">
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>13511</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>19</v>
@@ -2169,7 +2178,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>21</v>
@@ -2190,18 +2199,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45.75">
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>46418</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>19</v>
@@ -2213,7 +2222,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>21</v>
@@ -2234,18 +2243,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="33">
+    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>12408</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>19</v>
@@ -2257,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>21</v>
@@ -2275,34 +2284,34 @@
         <v>19</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>12543</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I20" s="12" t="s">
         <v>21</v>
       </c>
@@ -2319,21 +2328,21 @@
         <v>19</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="45.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>12833</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>19</v>
@@ -2345,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>21</v>
@@ -2366,18 +2375,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="33">
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>13090</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>19</v>
@@ -2389,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>21</v>
@@ -2410,21 +2419,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30.75">
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>12336</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>19</v>
@@ -2433,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>21</v>
@@ -2454,18 +2463,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5">
+    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>12463</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>19</v>
@@ -2477,7 +2486,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>21</v>
@@ -2498,18 +2507,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30.75">
+    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>12938</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>19</v>
@@ -2521,7 +2530,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>21</v>
@@ -2542,18 +2551,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5">
+    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>12973</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>19</v>
@@ -2565,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>21</v>
@@ -2586,18 +2595,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5">
+    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>13210</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>19</v>
@@ -2609,7 +2618,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>21</v>
@@ -2629,22 +2638,22 @@
       <c r="N27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O27" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="45.75">
+      <c r="O27" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>13351</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>19</v>
@@ -2656,7 +2665,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>21</v>
@@ -2677,18 +2686,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5">
+    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>13473</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>19</v>
@@ -2700,7 +2709,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>21</v>
@@ -2721,21 +2730,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30.75">
+    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>25107</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>19</v>
@@ -2744,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>21</v>
@@ -2765,22 +2774,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="39.75">
+    <row r="31" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>11046</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
         <v>19</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>21</v>
@@ -2808,25 +2815,25 @@
       <c r="N31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O31" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="30.75">
+      <c r="O31" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>11541</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>19</v>
@@ -2835,7 +2842,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>21</v>
@@ -2855,22 +2862,22 @@
       <c r="N32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="30.75">
+      <c r="O32" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>12301</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>19</v>
@@ -2882,7 +2889,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>21</v>
@@ -2903,18 +2910,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30.75">
+    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>13291</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>19</v>
@@ -2926,7 +2933,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>21</v>
@@ -2947,21 +2954,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30.75">
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>13592</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C35" s="12">
         <v>23</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>19</v>
@@ -2970,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>21</v>
@@ -2991,18 +2998,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30.75">
+    <row r="36" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>13653</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>19</v>
@@ -3014,7 +3021,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>21</v>
@@ -3035,18 +3042,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16.5">
+    <row r="37" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>13666</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>19</v>
@@ -3058,7 +3065,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>21</v>
@@ -3079,18 +3086,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.5">
+    <row r="38" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>13672</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="12">
         <v>23</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
@@ -3102,7 +3109,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>21</v>
@@ -3123,30 +3130,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="47.25" customHeight="1">
+    <row r="39" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>45527</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C39" s="12">
         <v>36</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>21</v>
@@ -3164,13 +3171,13 @@
         <v>19</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="O39" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>131</v>
+      </c>
+      <c r="O39" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>19</v>
       </c>
@@ -3214,30 +3221,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45.75">
+    <row r="41" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>45678</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C41" s="12">
         <v>31</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>21</v>
@@ -3257,22 +3264,22 @@
       <c r="N41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="64.5" customHeight="1">
+      <c r="O41" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>46468</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>19</v>
@@ -3281,45 +3288,45 @@
         <v>19</v>
       </c>
       <c r="G42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="O42" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="30.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>46473</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
@@ -3328,10 +3335,10 @@
         <v>19</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>21</v>
@@ -3349,24 +3356,24 @@
         <v>19</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="O43" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="30.75">
+        <v>144</v>
+      </c>
+      <c r="O43" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>46474</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>19</v>
@@ -3375,10 +3382,10 @@
         <v>19</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>21</v>
@@ -3399,18 +3406,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="60.75">
+    <row r="45" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>46471</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>19</v>
@@ -3419,10 +3426,10 @@
         <v>19</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>21</v>
@@ -3440,24 +3447,24 @@
         <v>19</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="O45" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="16.5">
+        <v>151</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>33245</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>19</v>
@@ -3469,7 +3476,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>21</v>
@@ -3490,18 +3497,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="16.5">
+    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>10488</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>19</v>
@@ -3513,7 +3520,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>21</v>
@@ -3534,18 +3541,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16.5">
+    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>10778</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>19</v>
@@ -3557,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>21</v>
@@ -3578,18 +3585,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="6" customFormat="1" ht="41.25" customHeight="1">
+    <row r="49" spans="1:15" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>20182</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>19</v>
@@ -3601,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>21</v>
@@ -3616,27 +3623,27 @@
         <v>22</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="21" customHeight="1">
+    <row r="50" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>45875</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>19</v>
@@ -3645,7 +3652,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>21</v>
@@ -3663,21 +3670,21 @@
         <v>19</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="16.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>20187</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>19</v>
@@ -3689,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>21</v>
@@ -3710,31 +3717,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="16.5">
+    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>20784</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="I52" s="12" t="s">
         <v>21</v>
       </c>
@@ -3754,18 +3761,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30.75">
+    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>23130</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>19</v>
@@ -3777,7 +3784,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>21</v>
@@ -3798,18 +3805,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30.75">
+    <row r="54" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>29224</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>19</v>
@@ -3821,7 +3828,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>21</v>
@@ -3842,18 +3849,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16.5">
+    <row r="55" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>30967</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>19</v>
@@ -3865,7 +3872,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>21</v>
@@ -3886,18 +3893,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16.5">
+    <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>45540</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>19</v>
@@ -3909,7 +3916,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>21</v>
@@ -3930,18 +3937,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16.5">
+    <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>12753</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>19</v>
@@ -3973,217 +3980,217 @@
       <c r="N57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O57" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="16.5">
+      <c r="O57" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>12134</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N58" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="26.25">
-      <c r="A59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="C60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="I60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O60" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="12" t="s">
+    </row>
+    <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" s="25" t="s">
+      <c r="C61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="12" t="s">
+      <c r="H61" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="I61" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="C62" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" s="24" t="s">
+      <c r="H62" s="22" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M61" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="5" customFormat="1">
-      <c r="A62" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="I62" s="12" t="s">
         <v>21</v>
       </c>
@@ -4194,7 +4201,7 @@
         <v>19</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M62" s="22" t="s">
         <v>19</v>
@@ -4203,18 +4210,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="33.75" customHeight="1">
+    <row r="63" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>170430</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>19</v>
@@ -4223,10 +4230,10 @@
         <v>19</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>21</v>
@@ -4238,27 +4245,27 @@
         <v>19</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N63" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="111.75" customHeight="1">
+    <row r="64" spans="1:15" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>160560</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
@@ -4267,10 +4274,10 @@
         <v>19</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>21</v>
@@ -4282,30 +4289,30 @@
         <v>19</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="121.5">
+    <row r="65" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>160050</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>19</v>
@@ -4314,7 +4321,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>21</v>
@@ -4326,7 +4333,7 @@
         <v>19</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>19</v>
@@ -4335,21 +4342,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="45.75">
+    <row r="66" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>10265</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>19</v>
@@ -4358,7 +4365,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>21</v>
@@ -4379,21 +4386,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="76.5">
+    <row r="67" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>12075</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>19</v>
@@ -4402,7 +4409,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>21</v>
@@ -4423,21 +4430,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="106.5">
+    <row r="68" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>11092</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>19</v>
@@ -4467,21 +4474,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="45.75">
+    <row r="69" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>10506</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>19</v>
@@ -4511,21 +4518,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>13547</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>19</v>
@@ -4534,7 +4541,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>21</v>
@@ -4554,25 +4561,25 @@
       <c r="N70" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O70" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="45.75">
+      <c r="O70" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>13140</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>19</v>
@@ -4602,21 +4609,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="5" customFormat="1" ht="60.75">
+    <row r="72" spans="1:15" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
         <v>26214</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>19</v>
@@ -4646,236 +4653,236 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="45.75">
+    <row r="73" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>11938</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="C76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M73" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N73" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O73" s="24" t="s">
+      <c r="F76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="22" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" s="5" customFormat="1">
-      <c r="A74" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="22" t="s">
+      <c r="I76" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L74" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N74" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="89.25" customHeight="1">
-      <c r="A75" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="12" t="s">
+      <c r="C77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="12" t="s">
+      <c r="F77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I75" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N75" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" s="5" customFormat="1" ht="60.75">
-      <c r="A76" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L76" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M76" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N76" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="60.75">
-      <c r="A77" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M77" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N77" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="30.75">
-      <c r="A78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="C78" s="12" t="s">
         <v>19</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>19</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>19</v>
@@ -4904,7 +4911,7 @@
         <v>19</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M78" s="14" t="s">
         <v>19</v>
@@ -4926,19 +4933,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="187.140625" customWidth="1"/>
+    <col min="1" max="1" width="187.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="408.75" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4954,23 +4961,23 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="202.5703125" customWidth="1"/>
+    <col min="1" max="1" width="202.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="114" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="403.5" customHeight="1">
-      <c r="A3" s="23"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="403.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
